--- a/output/tablas/analisis_eventos_y_alarmas.xlsx
+++ b/output/tablas/analisis_eventos_y_alarmas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="374">
   <si>
     <t>maquina</t>
   </si>
@@ -278,174 +278,177 @@
     <t>2026-01-09 18:03:45</t>
   </si>
   <si>
+    <t>2026-01-09 18:11:49</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:07:39</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:09:20</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:10:28</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:12:12</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:44:14</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:45:37</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:46:53</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:53:37</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:54:25</t>
+  </si>
+  <si>
+    <t>2026-01-09 19:55:51</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:07:01</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:12:04</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:14:15</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:17:22</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:32:19</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:43:46</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:48:01</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:49:39</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:51:25</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:55:51</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:57:22</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:58:45</t>
+  </si>
+  <si>
+    <t>2026-01-09 20:59:40</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:06:52</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:41:14</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:42:37</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:44:59</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:49:59</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:52:03</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:52:59</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:54:12</t>
+  </si>
+  <si>
+    <t>2026-01-09 21:55:08</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:07:39</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:10:01</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:15:49</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:17:48</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:19:27</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:27:22</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:29:51</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:30:39</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:32:05</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:36:45</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:39:29</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:41:16</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:42:44</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:45:01</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:47:14</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:48:05</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:49:18</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:50:16</t>
+  </si>
+  <si>
+    <t>2026-01-09 23:58:24</t>
+  </si>
+  <si>
+    <t>2026-01-09 17:16:18</t>
+  </si>
+  <si>
     <t>2026-01-09 18:06:11</t>
   </si>
   <si>
-    <t>2026-01-09 18:11:49</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:07:39</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:09:20</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:10:28</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:12:12</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:44:14</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:45:37</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:46:53</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:53:37</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:54:25</t>
-  </si>
-  <si>
-    <t>2026-01-09 19:55:51</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:07:01</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:10:25</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:12:04</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:14:15</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:17:22</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:32:19</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:48:01</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:49:39</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:51:25</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:55:51</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:57:22</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:58:45</t>
-  </si>
-  <si>
-    <t>2026-01-09 20:59:40</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:06:52</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:41:14</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:42:37</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:44:59</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:49:59</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:52:03</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:52:59</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:54:12</t>
-  </si>
-  <si>
-    <t>2026-01-09 21:55:08</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:07:39</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:10:01</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:15:49</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:17:48</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:19:27</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:27:22</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:29:51</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:30:39</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:32:05</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:36:45</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:39:29</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:41:16</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:42:44</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:45:01</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:47:14</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:48:05</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:49:18</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:50:16</t>
-  </si>
-  <si>
-    <t>2026-01-09 23:58:24</t>
-  </si>
-  <si>
-    <t>2026-01-09 17:16:18</t>
-  </si>
-  <si>
     <t>2026-01-09 19:12:09</t>
   </si>
   <si>
     <t>2026-01-09 20:12:01</t>
   </si>
   <si>
+    <t>2026-01-09 20:41:27</t>
+  </si>
+  <si>
     <t>2026-01-09 20:49:37</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
     <t>2026-01-09 20:35:05</t>
   </si>
   <si>
+    <t>2026-01-09 20:43:48</t>
+  </si>
+  <si>
     <t>2026-01-09 20:48:08</t>
   </si>
   <si>
@@ -848,6 +854,9 @@
     <t>2026-01-09 18:06:34</t>
   </si>
   <si>
+    <t>2026-01-09 20:41:29</t>
+  </si>
+  <si>
     <t>2026-01-09 21:15:25</t>
   </si>
   <si>
@@ -1049,6 +1058,15 @@
     <t>descripcion</t>
   </si>
   <si>
+    <t>ubicacion</t>
+  </si>
+  <si>
+    <t>criterio</t>
+  </si>
+  <si>
+    <t>fase_critica</t>
+  </si>
+  <si>
     <t>valor_medido</t>
   </si>
   <si>
@@ -1064,13 +1082,61 @@
     <t>SOBRECORRIENTE</t>
   </si>
   <si>
-    <t>Sobrecorriente sostenida por encima del límite</t>
-  </si>
-  <si>
-    <t>2026-01-09 18:28:43-03:00</t>
-  </si>
-  <si>
-    <t>2026-01-09 18:45:16-03:00</t>
+    <t>SOBRECORRIENTE_TRIFASICA</t>
+  </si>
+  <si>
+    <t>DESEQUILIBRIO_TRIFASICO</t>
+  </si>
+  <si>
+    <t>Sobrecorriente sostenida monofásica</t>
+  </si>
+  <si>
+    <t>Sobrecorriente sostenida en las tres fases</t>
+  </si>
+  <si>
+    <t>Desequilibrio de corrientes trifásicas</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>FASE_UNICA</t>
+  </si>
+  <si>
+    <t>MAX_FASE</t>
+  </si>
+  <si>
+    <t>MAX_DESVIO_SOBRE_MEDIA</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:56:16-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:56:01-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:58:07-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 18:20:31-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 18:40:51-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:56:03-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:57:31-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 16:56:31-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 18:40:55-03:00</t>
+  </si>
+  <si>
+    <t>2026-01-09 22:41:07-03:00</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,10 +1534,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1488,10 +1554,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1508,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1528,10 +1594,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1548,10 +1614,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1568,10 +1634,10 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1588,10 +1654,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1608,10 +1674,10 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1628,10 +1694,10 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1648,10 +1714,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1668,10 +1734,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1688,10 +1754,10 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1708,10 +1774,10 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1728,10 +1794,10 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1748,10 +1814,10 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1768,10 +1834,10 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1788,10 +1854,10 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1808,10 +1874,10 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1828,10 +1894,10 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1848,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1868,10 +1934,10 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1888,10 +1954,10 @@
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1908,10 +1974,10 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1928,10 +1994,10 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1948,10 +2014,10 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1968,10 +2034,10 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1988,10 +2054,10 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2008,10 +2074,10 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2028,10 +2094,10 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2048,10 +2114,10 @@
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2068,10 +2134,10 @@
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2088,10 +2154,10 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2108,10 +2174,10 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2128,10 +2194,10 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2148,10 +2214,10 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2168,10 +2234,10 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2188,10 +2254,10 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2208,10 +2274,10 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2228,10 +2294,10 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2248,10 +2314,10 @@
         <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2268,10 +2334,10 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2288,10 +2354,10 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2308,10 +2374,10 @@
         <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2328,10 +2394,10 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2348,10 +2414,10 @@
         <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2368,10 +2434,10 @@
         <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F47" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2388,10 +2454,10 @@
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2408,10 +2474,10 @@
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2428,10 +2494,10 @@
         <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2448,10 +2514,10 @@
         <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2468,10 +2534,10 @@
         <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2488,10 +2554,10 @@
         <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2508,10 +2574,10 @@
         <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2528,10 +2594,10 @@
         <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2548,10 +2614,10 @@
         <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2568,10 +2634,10 @@
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2588,10 +2654,10 @@
         <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2608,10 +2674,10 @@
         <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2628,10 +2694,10 @@
         <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2648,10 +2714,10 @@
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2668,10 +2734,10 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F62" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2688,10 +2754,10 @@
         <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2708,10 +2774,10 @@
         <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F64" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2728,10 +2794,10 @@
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2748,10 +2814,10 @@
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F66" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2768,10 +2834,10 @@
         <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2788,10 +2854,10 @@
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2808,10 +2874,10 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2828,10 +2894,10 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2848,10 +2914,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2868,10 +2934,10 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2888,10 +2954,10 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2908,10 +2974,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2928,10 +2994,10 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2948,10 +3014,10 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2968,10 +3034,10 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F77" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2988,10 +3054,10 @@
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3008,10 +3074,10 @@
         <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3028,10 +3094,10 @@
         <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3048,10 +3114,10 @@
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3068,10 +3134,10 @@
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3088,10 +3154,10 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F83" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3108,10 +3174,10 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3128,10 +3194,10 @@
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3148,10 +3214,10 @@
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F86" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3168,10 +3234,10 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F87" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3188,10 +3254,10 @@
         <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3208,10 +3274,10 @@
         <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F89" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3228,10 +3294,10 @@
         <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3248,10 +3314,10 @@
         <v>34</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3268,10 +3334,10 @@
         <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3288,10 +3354,10 @@
         <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3308,10 +3374,10 @@
         <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3328,10 +3394,10 @@
         <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3348,10 +3414,10 @@
         <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3368,10 +3434,10 @@
         <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3388,10 +3454,10 @@
         <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3408,10 +3474,10 @@
         <v>42</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3428,10 +3494,10 @@
         <v>43</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3448,10 +3514,10 @@
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3468,10 +3534,10 @@
         <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3488,10 +3554,10 @@
         <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3508,10 +3574,10 @@
         <v>47</v>
       </c>
       <c r="E104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3528,10 +3594,10 @@
         <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3548,10 +3614,10 @@
         <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3568,10 +3634,10 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3591,7 +3657,7 @@
         <v>77</v>
       </c>
       <c r="F108" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3608,10 +3674,10 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3628,10 +3694,10 @@
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F110" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3648,10 +3714,10 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3668,10 +3734,10 @@
         <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F112" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3688,10 +3754,10 @@
         <v>55</v>
       </c>
       <c r="E113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F113" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3708,10 +3774,10 @@
         <v>56</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3728,10 +3794,10 @@
         <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3748,10 +3814,10 @@
         <v>58</v>
       </c>
       <c r="E116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3768,10 +3834,10 @@
         <v>59</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F117" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3788,10 +3854,10 @@
         <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F118" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3808,10 +3874,10 @@
         <v>61</v>
       </c>
       <c r="E119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F119" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3828,10 +3894,10 @@
         <v>62</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F120" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3848,10 +3914,10 @@
         <v>63</v>
       </c>
       <c r="E121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F121" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3868,10 +3934,10 @@
         <v>64</v>
       </c>
       <c r="E122" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3888,10 +3954,10 @@
         <v>65</v>
       </c>
       <c r="E123" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3908,10 +3974,10 @@
         <v>66</v>
       </c>
       <c r="E124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3928,10 +3994,10 @@
         <v>67</v>
       </c>
       <c r="E125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F125" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3948,10 +4014,10 @@
         <v>68</v>
       </c>
       <c r="E126" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3968,10 +4034,10 @@
         <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F127" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3988,10 +4054,10 @@
         <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F128" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4008,10 +4074,10 @@
         <v>71</v>
       </c>
       <c r="E129" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F129" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4028,10 +4094,10 @@
         <v>72</v>
       </c>
       <c r="E130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F130" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4048,10 +4114,10 @@
         <v>73</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4068,10 +4134,10 @@
         <v>74</v>
       </c>
       <c r="E132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F132" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4088,10 +4154,10 @@
         <v>75</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F133" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4108,10 +4174,10 @@
         <v>76</v>
       </c>
       <c r="E134" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F134" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4128,10 +4194,10 @@
         <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F135" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4148,10 +4214,10 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F136" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4168,10 +4234,10 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F137" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4188,10 +4254,10 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F138" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4208,10 +4274,10 @@
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F139" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4228,10 +4294,10 @@
         <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F140" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4248,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F141" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4268,10 +4334,10 @@
         <v>18</v>
       </c>
       <c r="E142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F142" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4288,10 +4354,10 @@
         <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F143" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4308,10 +4374,10 @@
         <v>20</v>
       </c>
       <c r="E144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F144" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4328,10 +4394,10 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F145" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4348,10 +4414,10 @@
         <v>22</v>
       </c>
       <c r="E146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4368,10 +4434,10 @@
         <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F147" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4388,10 +4454,10 @@
         <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4408,10 +4474,10 @@
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F149" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4428,10 +4494,10 @@
         <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4448,10 +4514,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4468,10 +4534,10 @@
         <v>28</v>
       </c>
       <c r="E152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F152" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4488,10 +4554,10 @@
         <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4508,10 +4574,10 @@
         <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F154" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4528,10 +4594,10 @@
         <v>31</v>
       </c>
       <c r="E155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F155" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4548,10 +4614,10 @@
         <v>32</v>
       </c>
       <c r="E156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4568,10 +4634,10 @@
         <v>33</v>
       </c>
       <c r="E157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4588,10 +4654,10 @@
         <v>34</v>
       </c>
       <c r="E158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4608,10 +4674,10 @@
         <v>35</v>
       </c>
       <c r="E159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F159" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4628,10 +4694,10 @@
         <v>36</v>
       </c>
       <c r="E160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F160" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4648,10 +4714,10 @@
         <v>37</v>
       </c>
       <c r="E161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F161" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4668,10 +4734,10 @@
         <v>38</v>
       </c>
       <c r="E162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4688,10 +4754,10 @@
         <v>39</v>
       </c>
       <c r="E163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F163" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4708,10 +4774,10 @@
         <v>40</v>
       </c>
       <c r="E164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F164" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4728,10 +4794,10 @@
         <v>41</v>
       </c>
       <c r="E165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F165" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4748,10 +4814,10 @@
         <v>42</v>
       </c>
       <c r="E166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4768,10 +4834,10 @@
         <v>43</v>
       </c>
       <c r="E167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F167" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4788,10 +4854,10 @@
         <v>44</v>
       </c>
       <c r="E168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F168" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4808,10 +4874,10 @@
         <v>45</v>
       </c>
       <c r="E169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4828,10 +4894,10 @@
         <v>46</v>
       </c>
       <c r="E170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F170" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4848,10 +4914,10 @@
         <v>47</v>
       </c>
       <c r="E171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F171" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4868,10 +4934,10 @@
         <v>48</v>
       </c>
       <c r="E172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F172" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4888,10 +4954,10 @@
         <v>49</v>
       </c>
       <c r="E173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4908,10 +4974,10 @@
         <v>50</v>
       </c>
       <c r="E174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F174" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4931,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4948,10 +5014,10 @@
         <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F176" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4968,10 +5034,10 @@
         <v>52</v>
       </c>
       <c r="E177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F177" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4988,10 +5054,10 @@
         <v>53</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F178" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5008,10 +5074,10 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F179" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5028,10 +5094,10 @@
         <v>55</v>
       </c>
       <c r="E180" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F180" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5048,10 +5114,10 @@
         <v>56</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F181" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5068,10 +5134,10 @@
         <v>57</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F182" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5088,10 +5154,10 @@
         <v>58</v>
       </c>
       <c r="E183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F183" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5108,10 +5174,10 @@
         <v>59</v>
       </c>
       <c r="E184" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F184" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5128,10 +5194,10 @@
         <v>60</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F185" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5148,10 +5214,10 @@
         <v>61</v>
       </c>
       <c r="E186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F186" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5168,10 +5234,10 @@
         <v>62</v>
       </c>
       <c r="E187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F187" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5188,10 +5254,10 @@
         <v>63</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F188" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5208,10 +5274,10 @@
         <v>64</v>
       </c>
       <c r="E189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F189" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5228,10 +5294,10 @@
         <v>65</v>
       </c>
       <c r="E190" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F190" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5248,10 +5314,10 @@
         <v>66</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F191" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5268,10 +5334,10 @@
         <v>67</v>
       </c>
       <c r="E192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F192" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5288,10 +5354,10 @@
         <v>68</v>
       </c>
       <c r="E193" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F193" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5308,10 +5374,10 @@
         <v>69</v>
       </c>
       <c r="E194" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F194" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5328,10 +5394,10 @@
         <v>70</v>
       </c>
       <c r="E195" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F195" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5348,10 +5414,10 @@
         <v>71</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F196" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5368,10 +5434,10 @@
         <v>72</v>
       </c>
       <c r="E197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F197" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5388,10 +5454,10 @@
         <v>73</v>
       </c>
       <c r="E198" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F198" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5408,10 +5474,10 @@
         <v>74</v>
       </c>
       <c r="E199" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F199" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5428,10 +5494,10 @@
         <v>75</v>
       </c>
       <c r="E200" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F200" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5448,10 +5514,10 @@
         <v>76</v>
       </c>
       <c r="E201" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F201" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5468,10 +5534,10 @@
         <v>78</v>
       </c>
       <c r="E202" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F202" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5488,10 +5554,10 @@
         <v>79</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F203" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5508,10 +5574,10 @@
         <v>80</v>
       </c>
       <c r="E204" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F204" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5531,7 +5597,7 @@
         <v>81</v>
       </c>
       <c r="F205" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5548,10 +5614,10 @@
         <v>82</v>
       </c>
       <c r="E206" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F206" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5568,10 +5634,10 @@
         <v>83</v>
       </c>
       <c r="E207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F207" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5588,10 +5654,10 @@
         <v>84</v>
       </c>
       <c r="E208" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F208" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5608,10 +5674,10 @@
         <v>85</v>
       </c>
       <c r="E209" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F209" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5628,10 +5694,10 @@
         <v>86</v>
       </c>
       <c r="E210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F210" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5648,10 +5714,10 @@
         <v>87</v>
       </c>
       <c r="E211" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="F211" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5668,10 +5734,10 @@
         <v>88</v>
       </c>
       <c r="E212" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F212" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5688,10 +5754,10 @@
         <v>89</v>
       </c>
       <c r="E213" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F213" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5708,10 +5774,10 @@
         <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F214" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5728,10 +5794,10 @@
         <v>91</v>
       </c>
       <c r="E215" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F215" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5748,10 +5814,10 @@
         <v>92</v>
       </c>
       <c r="E216" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F216" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5768,10 +5834,10 @@
         <v>93</v>
       </c>
       <c r="E217" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F217" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5788,10 +5854,10 @@
         <v>94</v>
       </c>
       <c r="E218" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F218" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5808,10 +5874,10 @@
         <v>95</v>
       </c>
       <c r="E219" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="F219" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5828,10 +5894,10 @@
         <v>96</v>
       </c>
       <c r="E220" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="F220" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5848,10 +5914,10 @@
         <v>97</v>
       </c>
       <c r="E221" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F221" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5868,10 +5934,10 @@
         <v>98</v>
       </c>
       <c r="E222" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F222" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5888,10 +5954,10 @@
         <v>99</v>
       </c>
       <c r="E223" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F223" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5908,10 +5974,10 @@
         <v>100</v>
       </c>
       <c r="E224" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="F224" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5928,10 +5994,10 @@
         <v>101</v>
       </c>
       <c r="E225" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F225" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5948,10 +6014,10 @@
         <v>102</v>
       </c>
       <c r="E226" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F226" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5968,10 +6034,10 @@
         <v>103</v>
       </c>
       <c r="E227" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F227" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5988,10 +6054,10 @@
         <v>104</v>
       </c>
       <c r="E228" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F228" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6008,10 +6074,10 @@
         <v>105</v>
       </c>
       <c r="E229" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F229" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6028,10 +6094,10 @@
         <v>106</v>
       </c>
       <c r="E230" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F230" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6048,10 +6114,10 @@
         <v>107</v>
       </c>
       <c r="E231" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F231" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6068,10 +6134,10 @@
         <v>108</v>
       </c>
       <c r="E232" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F232" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6088,7 +6154,7 @@
         <v>109</v>
       </c>
       <c r="E233" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F233" t="s">
         <v>332</v>
@@ -6108,10 +6174,10 @@
         <v>110</v>
       </c>
       <c r="E234" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F234" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6128,10 +6194,10 @@
         <v>111</v>
       </c>
       <c r="E235" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F235" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6148,10 +6214,10 @@
         <v>112</v>
       </c>
       <c r="E236" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="F236" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6168,10 +6234,10 @@
         <v>113</v>
       </c>
       <c r="E237" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="F237" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6188,10 +6254,10 @@
         <v>114</v>
       </c>
       <c r="E238" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F238" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6208,10 +6274,10 @@
         <v>115</v>
       </c>
       <c r="E239" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F239" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6228,10 +6294,10 @@
         <v>116</v>
       </c>
       <c r="E240" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="F240" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6248,10 +6314,10 @@
         <v>117</v>
       </c>
       <c r="E241" t="s">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c r="F241" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6268,10 +6334,10 @@
         <v>118</v>
       </c>
       <c r="E242" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F242" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6288,10 +6354,10 @@
         <v>119</v>
       </c>
       <c r="E243" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F243" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6308,10 +6374,10 @@
         <v>120</v>
       </c>
       <c r="E244" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F244" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6328,10 +6394,10 @@
         <v>121</v>
       </c>
       <c r="E245" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F245" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6348,10 +6414,10 @@
         <v>122</v>
       </c>
       <c r="E246" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F246" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6368,10 +6434,10 @@
         <v>123</v>
       </c>
       <c r="E247" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F247" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6388,10 +6454,10 @@
         <v>124</v>
       </c>
       <c r="E248" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F248" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6408,10 +6474,10 @@
         <v>125</v>
       </c>
       <c r="E249" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F249" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6428,10 +6494,10 @@
         <v>126</v>
       </c>
       <c r="E250" t="s">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="F250" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6451,7 +6517,7 @@
         <v>127</v>
       </c>
       <c r="F251" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6468,10 +6534,10 @@
         <v>128</v>
       </c>
       <c r="E252" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="F252" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6488,10 +6554,10 @@
         <v>129</v>
       </c>
       <c r="E253" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F253" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6508,10 +6574,10 @@
         <v>130</v>
       </c>
       <c r="E254" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F254" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6528,10 +6594,10 @@
         <v>131</v>
       </c>
       <c r="E255" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F255" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6548,10 +6614,10 @@
         <v>132</v>
       </c>
       <c r="E256" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F256" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6568,10 +6634,10 @@
         <v>133</v>
       </c>
       <c r="E257" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F257" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6588,10 +6654,10 @@
         <v>134</v>
       </c>
       <c r="E258" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F258" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6608,10 +6674,10 @@
         <v>135</v>
       </c>
       <c r="E259" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F259" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6628,10 +6694,10 @@
         <v>136</v>
       </c>
       <c r="E260" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F260" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6648,7 +6714,7 @@
         <v>137</v>
       </c>
       <c r="E261" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F261" t="s">
         <v>335</v>
@@ -6668,10 +6734,10 @@
         <v>138</v>
       </c>
       <c r="E262" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F262" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6679,19 +6745,19 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C263">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D263" t="s">
         <v>139</v>
       </c>
       <c r="E263" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="F263" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6702,16 +6768,16 @@
         <v>9</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="E264" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F264" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6722,16 +6788,16 @@
         <v>9</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E265" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F265" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6742,16 +6808,16 @@
         <v>9</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E266" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="F266" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6762,16 +6828,16 @@
         <v>9</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E267" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="F267" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6782,16 +6848,16 @@
         <v>9</v>
       </c>
       <c r="C268">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E268" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F268" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6802,16 +6868,16 @@
         <v>9</v>
       </c>
       <c r="C269">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E269" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F269" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6822,16 +6888,16 @@
         <v>9</v>
       </c>
       <c r="C270">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E270" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F270" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6842,16 +6908,16 @@
         <v>9</v>
       </c>
       <c r="C271">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E271" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="F271" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6862,16 +6928,16 @@
         <v>9</v>
       </c>
       <c r="C272">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
         <v>87</v>
       </c>
       <c r="E272" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="F272" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6882,16 +6948,16 @@
         <v>9</v>
       </c>
       <c r="C273">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D273" t="s">
         <v>88</v>
       </c>
       <c r="E273" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F273" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6902,16 +6968,16 @@
         <v>9</v>
       </c>
       <c r="C274">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D274" t="s">
         <v>89</v>
       </c>
       <c r="E274" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F274" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6922,16 +6988,16 @@
         <v>9</v>
       </c>
       <c r="C275">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D275" t="s">
         <v>90</v>
       </c>
       <c r="E275" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F275" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6942,16 +7008,16 @@
         <v>9</v>
       </c>
       <c r="C276">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E276" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F276" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6962,16 +7028,16 @@
         <v>9</v>
       </c>
       <c r="C277">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D277" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E277" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F277" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6982,16 +7048,16 @@
         <v>9</v>
       </c>
       <c r="C278">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D278" t="s">
         <v>93</v>
       </c>
       <c r="E278" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F278" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7002,16 +7068,16 @@
         <v>9</v>
       </c>
       <c r="C279">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D279" t="s">
         <v>94</v>
       </c>
       <c r="E279" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F279" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7022,16 +7088,16 @@
         <v>9</v>
       </c>
       <c r="C280">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D280" t="s">
         <v>95</v>
       </c>
       <c r="E280" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="F280" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7042,16 +7108,16 @@
         <v>9</v>
       </c>
       <c r="C281">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D281" t="s">
         <v>96</v>
       </c>
       <c r="E281" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="F281" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7062,16 +7128,16 @@
         <v>9</v>
       </c>
       <c r="C282">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
         <v>97</v>
       </c>
       <c r="E282" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F282" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7082,16 +7148,16 @@
         <v>9</v>
       </c>
       <c r="C283">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
         <v>98</v>
       </c>
       <c r="E283" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F283" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7102,16 +7168,16 @@
         <v>9</v>
       </c>
       <c r="C284">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E284" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F284" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7122,16 +7188,16 @@
         <v>9</v>
       </c>
       <c r="C285">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
         <v>100</v>
       </c>
       <c r="E285" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="F285" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7142,16 +7208,16 @@
         <v>9</v>
       </c>
       <c r="C286">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D286" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E286" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F286" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7162,16 +7228,16 @@
         <v>9</v>
       </c>
       <c r="C287">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D287" t="s">
         <v>102</v>
       </c>
       <c r="E287" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F287" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7182,16 +7248,16 @@
         <v>9</v>
       </c>
       <c r="C288">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="E288" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="F288" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7202,16 +7268,16 @@
         <v>9</v>
       </c>
       <c r="C289">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D289" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E289" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F289" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7222,16 +7288,16 @@
         <v>9</v>
       </c>
       <c r="C290">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E290" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F290" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7242,16 +7308,16 @@
         <v>9</v>
       </c>
       <c r="C291">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D291" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E291" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F291" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7262,16 +7328,16 @@
         <v>9</v>
       </c>
       <c r="C292">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D292" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E292" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F292" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7282,16 +7348,16 @@
         <v>9</v>
       </c>
       <c r="C293">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D293" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E293" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F293" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7302,16 +7368,16 @@
         <v>9</v>
       </c>
       <c r="C294">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D294" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E294" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F294" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7322,16 +7388,16 @@
         <v>9</v>
       </c>
       <c r="C295">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D295" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E295" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F295" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7342,16 +7408,16 @@
         <v>9</v>
       </c>
       <c r="C296">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D296" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E296" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F296" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7362,16 +7428,16 @@
         <v>9</v>
       </c>
       <c r="C297">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D297" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E297" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F297" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7382,16 +7448,16 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D298" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E298" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F298" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7402,16 +7468,16 @@
         <v>9</v>
       </c>
       <c r="C299">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D299" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E299" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F299" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7422,16 +7488,16 @@
         <v>9</v>
       </c>
       <c r="C300">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D300" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E300" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F300" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7442,16 +7508,16 @@
         <v>9</v>
       </c>
       <c r="C301">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D301" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E301" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F301" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7462,16 +7528,16 @@
         <v>9</v>
       </c>
       <c r="C302">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D302" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E302" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F302" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7482,16 +7548,16 @@
         <v>9</v>
       </c>
       <c r="C303">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D303" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E303" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F303" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7502,16 +7568,16 @@
         <v>9</v>
       </c>
       <c r="C304">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D304" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E304" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F304" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7522,16 +7588,16 @@
         <v>9</v>
       </c>
       <c r="C305">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D305" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E305" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F305" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7542,16 +7608,16 @@
         <v>9</v>
       </c>
       <c r="C306">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D306" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E306" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F306" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7562,16 +7628,16 @@
         <v>9</v>
       </c>
       <c r="C307">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D307" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E307" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F307" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7582,16 +7648,16 @@
         <v>9</v>
       </c>
       <c r="C308">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D308" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E308" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F308" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7602,16 +7668,16 @@
         <v>9</v>
       </c>
       <c r="C309">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D309" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E309" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F309" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7622,16 +7688,16 @@
         <v>9</v>
       </c>
       <c r="C310">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D310" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E310" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F310" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7642,16 +7708,16 @@
         <v>9</v>
       </c>
       <c r="C311">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D311" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E311" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F311" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7662,16 +7728,16 @@
         <v>9</v>
       </c>
       <c r="C312">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D312" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E312" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F312" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7682,16 +7748,16 @@
         <v>9</v>
       </c>
       <c r="C313">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D313" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E313" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F313" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7702,16 +7768,16 @@
         <v>9</v>
       </c>
       <c r="C314">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D314" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E314" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F314" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7722,16 +7788,16 @@
         <v>9</v>
       </c>
       <c r="C315">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D315" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E315" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F315" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7742,16 +7808,16 @@
         <v>9</v>
       </c>
       <c r="C316">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D316" t="s">
+        <v>126</v>
+      </c>
+      <c r="E316" t="s">
         <v>127</v>
       </c>
-      <c r="E316" t="s">
-        <v>128</v>
-      </c>
       <c r="F316" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7762,16 +7828,16 @@
         <v>9</v>
       </c>
       <c r="C317">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D317" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E317" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F317" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7782,16 +7848,16 @@
         <v>9</v>
       </c>
       <c r="C318">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D318" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E318" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F318" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7802,16 +7868,16 @@
         <v>9</v>
       </c>
       <c r="C319">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D319" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E319" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F319" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7822,16 +7888,16 @@
         <v>9</v>
       </c>
       <c r="C320">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D320" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E320" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F320" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7842,16 +7908,16 @@
         <v>9</v>
       </c>
       <c r="C321">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D321" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E321" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F321" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7862,16 +7928,16 @@
         <v>9</v>
       </c>
       <c r="C322">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D322" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E322" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F322" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7882,16 +7948,16 @@
         <v>9</v>
       </c>
       <c r="C323">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D323" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E323" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F323" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7902,16 +7968,16 @@
         <v>9</v>
       </c>
       <c r="C324">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D324" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E324" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F324" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7922,16 +7988,16 @@
         <v>9</v>
       </c>
       <c r="C325">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D325" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E325" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F325" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7942,16 +8008,16 @@
         <v>9</v>
       </c>
       <c r="C326">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D326" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E326" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F326" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7962,16 +8028,16 @@
         <v>9</v>
       </c>
       <c r="C327">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D327" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E327" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F327" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7985,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E328" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F328" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8008,10 +8074,10 @@
         <v>79</v>
       </c>
       <c r="E329" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F329" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8028,10 +8094,10 @@
         <v>80</v>
       </c>
       <c r="E330" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F330" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8051,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="F331" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8068,10 +8134,10 @@
         <v>82</v>
       </c>
       <c r="E332" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F332" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8085,13 +8151,13 @@
         <v>6</v>
       </c>
       <c r="D333" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E333" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F333" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8108,10 +8174,10 @@
         <v>84</v>
       </c>
       <c r="E334" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F334" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8128,10 +8194,10 @@
         <v>85</v>
       </c>
       <c r="E335" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F335" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8148,10 +8214,10 @@
         <v>86</v>
       </c>
       <c r="E336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F336" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8165,13 +8231,13 @@
         <v>10</v>
       </c>
       <c r="D337" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="E337" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F337" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8185,13 +8251,13 @@
         <v>11</v>
       </c>
       <c r="D338" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E338" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F338" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8205,13 +8271,13 @@
         <v>12</v>
       </c>
       <c r="D339" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E339" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F339" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8225,13 +8291,13 @@
         <v>13</v>
       </c>
       <c r="D340" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E340" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F340" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8245,13 +8311,13 @@
         <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E341" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F341" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8268,10 +8334,10 @@
         <v>141</v>
       </c>
       <c r="E342" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F342" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8285,13 +8351,13 @@
         <v>16</v>
       </c>
       <c r="D343" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E343" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F343" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8305,13 +8371,13 @@
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E344" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F344" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8325,13 +8391,13 @@
         <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E345" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F345" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8345,13 +8411,13 @@
         <v>19</v>
       </c>
       <c r="D346" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E346" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F346" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8365,13 +8431,13 @@
         <v>20</v>
       </c>
       <c r="D347" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E347" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F347" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8385,13 +8451,13 @@
         <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E348" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F348" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8405,13 +8471,13 @@
         <v>22</v>
       </c>
       <c r="D349" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E349" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F349" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8425,13 +8491,13 @@
         <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="E350" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="F350" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8445,13 +8511,13 @@
         <v>24</v>
       </c>
       <c r="D351" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E351" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F351" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8465,13 +8531,13 @@
         <v>25</v>
       </c>
       <c r="D352" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E352" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F352" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8485,13 +8551,13 @@
         <v>26</v>
       </c>
       <c r="D353" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E353" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F353" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8505,13 +8571,13 @@
         <v>27</v>
       </c>
       <c r="D354" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="E354" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="F354" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8525,13 +8591,13 @@
         <v>28</v>
       </c>
       <c r="D355" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E355" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F355" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8545,13 +8611,13 @@
         <v>29</v>
       </c>
       <c r="D356" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E356" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F356" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8565,13 +8631,13 @@
         <v>30</v>
       </c>
       <c r="D357" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="E357" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F357" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8585,13 +8651,13 @@
         <v>31</v>
       </c>
       <c r="D358" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E358" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F358" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8605,13 +8671,13 @@
         <v>32</v>
       </c>
       <c r="D359" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E359" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F359" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8625,13 +8691,13 @@
         <v>33</v>
       </c>
       <c r="D360" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E360" t="s">
         <v>251</v>
       </c>
       <c r="F360" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8645,13 +8711,13 @@
         <v>34</v>
       </c>
       <c r="D361" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="E361" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F361" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8668,10 +8734,10 @@
         <v>145</v>
       </c>
       <c r="E362" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="F362" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8685,13 +8751,13 @@
         <v>36</v>
       </c>
       <c r="D363" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E363" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F363" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8705,13 +8771,13 @@
         <v>37</v>
       </c>
       <c r="D364" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E364" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="F364" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8728,10 +8794,10 @@
         <v>147</v>
       </c>
       <c r="E365" t="s">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="F365" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8748,10 +8814,10 @@
         <v>148</v>
       </c>
       <c r="E366" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="F366" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8768,10 +8834,10 @@
         <v>149</v>
       </c>
       <c r="E367" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="F367" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8785,13 +8851,13 @@
         <v>41</v>
       </c>
       <c r="D368" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E368" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F368" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8805,13 +8871,13 @@
         <v>42</v>
       </c>
       <c r="D369" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E369" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F369" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8825,13 +8891,13 @@
         <v>43</v>
       </c>
       <c r="D370" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E370" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="F370" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8845,13 +8911,13 @@
         <v>44</v>
       </c>
       <c r="D371" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E371" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="F371" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8865,13 +8931,13 @@
         <v>45</v>
       </c>
       <c r="D372" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E372" t="s">
         <v>258</v>
       </c>
       <c r="F372" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8885,13 +8951,13 @@
         <v>46</v>
       </c>
       <c r="D373" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E373" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F373" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8905,13 +8971,13 @@
         <v>47</v>
       </c>
       <c r="D374" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E374" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F374" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8925,13 +8991,13 @@
         <v>48</v>
       </c>
       <c r="D375" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E375" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="F375" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8945,13 +9011,13 @@
         <v>49</v>
       </c>
       <c r="D376" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E376" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="F376" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8965,13 +9031,13 @@
         <v>50</v>
       </c>
       <c r="D377" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E377" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F377" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8985,13 +9051,13 @@
         <v>51</v>
       </c>
       <c r="D378" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E378" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F378" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -9005,13 +9071,13 @@
         <v>52</v>
       </c>
       <c r="D379" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E379" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F379" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -9025,13 +9091,13 @@
         <v>53</v>
       </c>
       <c r="D380" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E380" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="F380" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -9045,13 +9111,13 @@
         <v>54</v>
       </c>
       <c r="D381" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E381" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="F381" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -9065,13 +9131,13 @@
         <v>55</v>
       </c>
       <c r="D382" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E382" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F382" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -9085,13 +9151,13 @@
         <v>56</v>
       </c>
       <c r="D383" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E383" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F383" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -9105,13 +9171,13 @@
         <v>57</v>
       </c>
       <c r="D384" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E384" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F384" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9125,13 +9191,13 @@
         <v>58</v>
       </c>
       <c r="D385" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E385" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F385" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9145,13 +9211,13 @@
         <v>59</v>
       </c>
       <c r="D386" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E386" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F386" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9165,13 +9231,13 @@
         <v>60</v>
       </c>
       <c r="D387" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E387" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F387" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9185,13 +9251,13 @@
         <v>61</v>
       </c>
       <c r="D388" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E388" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F388" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9205,13 +9271,13 @@
         <v>62</v>
       </c>
       <c r="D389" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E389" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F389" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9225,13 +9291,13 @@
         <v>63</v>
       </c>
       <c r="D390" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E390" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F390" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9245,13 +9311,33 @@
         <v>64</v>
       </c>
       <c r="D391" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E391" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F391" t="s">
-        <v>312</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392">
+        <v>65</v>
+      </c>
+      <c r="D392" t="s">
+        <v>154</v>
+      </c>
+      <c r="E392" t="s">
+        <v>283</v>
+      </c>
+      <c r="F392" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -9261,88 +9347,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>351</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>17.73025565726141</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>350</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>16.91096461577153</v>
       </c>
       <c r="H2">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16.73396334049432</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2">
+        <v>423.6166666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>17.88517341396341</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>351</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>18.01410668305294</v>
       </c>
       <c r="H3">
-        <v>6.85</v>
+        <v>17.87495083805592</v>
+      </c>
+      <c r="I3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J3">
+        <v>423.8666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>16.85571754321965</v>
+      </c>
+      <c r="H4">
+        <v>16.71169600945485</v>
+      </c>
+      <c r="I4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J4">
+        <v>294.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>18.50728382217392</v>
+      </c>
+      <c r="H5">
+        <v>17.87495083805592</v>
+      </c>
+      <c r="I5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>19.0941248564042</v>
+      </c>
+      <c r="H6">
+        <v>17.87495083805592</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6">
+        <v>15.98333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>45.84561274340677</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7">
+        <v>423.9166666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>12.18544404103563</v>
+      </c>
+      <c r="H8">
+        <v>12.03641677322732</v>
+      </c>
+      <c r="I8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8">
+        <v>323.2166666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>25.99915388902985</v>
+      </c>
+      <c r="H9">
+        <v>25.55347502717493</v>
+      </c>
+      <c r="I9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J9">
+        <v>423.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>29.42190004322899</v>
+      </c>
+      <c r="H10">
+        <v>29.12794680127313</v>
+      </c>
+      <c r="I10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J10">
+        <v>423.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>30.0446487717647</v>
+      </c>
+      <c r="H11">
+        <v>29.12794680127313</v>
+      </c>
+      <c r="I11" t="s">
+        <v>372</v>
+      </c>
+      <c r="J11">
+        <v>9.983333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>29.61354227553571</v>
+      </c>
+      <c r="H12">
+        <v>29.12794680127313</v>
+      </c>
+      <c r="I12" t="s">
+        <v>373</v>
+      </c>
+      <c r="J12">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
